--- a/5th/3_1/data/data.xlsx
+++ b/5th/3_1/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoga/Documents/ClassExperiment/5th/theme_3/1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoga/Documents/ClassExperiment/5th/3_1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C0BAE-8A47-4744-B0FA-F2D17C7808F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028D8C57-0CBD-4D4B-A237-5EA841285BA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="22160" windowHeight="14840" xr2:uid="{169A5627-D179-7247-939C-5E11FF30B5AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{169A5627-D179-7247-939C-5E11FF30B5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,6 +215,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="183" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -488,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,6 +581,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1877,16 +1883,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>5752</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>2241</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>691552</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>205441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1963,8 +1969,8 @@
       <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1165860</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>193040</xdr:rowOff>
     </xdr:to>
@@ -2299,16 +2305,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3EF441-79BA-0641-BE25-7D61F41AF8C8}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="124" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="2" max="7" width="10.7109375" style="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2601,7 +2609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
@@ -2618,7 +2626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -2640,8 +2648,12 @@
         <f t="shared" ref="F66:F84" si="3">B66*COS(D66)</f>
         <v>555</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66" s="30">
+        <f>B66/$B$66*12</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>5</v>
       </c>
@@ -2663,8 +2675,12 @@
         <f t="shared" si="3"/>
         <v>513.04026951724893</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67" s="30">
+        <f t="shared" ref="H67:H84" si="4">B67/$B$66*12</f>
+        <v>11.135135135135135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>10</v>
       </c>
@@ -2686,8 +2702,12 @@
         <f t="shared" si="3"/>
         <v>433.31541132537154</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68" s="30">
+        <f t="shared" si="4"/>
+        <v>9.513513513513514</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>15</v>
       </c>
@@ -2709,8 +2729,12 @@
         <f t="shared" si="3"/>
         <v>311.02811606507998</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="H69" s="30">
+        <f t="shared" si="4"/>
+        <v>6.9621621621621621</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>20</v>
       </c>
@@ -2732,8 +2756,12 @@
         <f t="shared" si="3"/>
         <v>222.7071511262603</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="H70" s="30">
+        <f t="shared" si="4"/>
+        <v>5.1243243243243244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>25</v>
       </c>
@@ -2755,8 +2783,12 @@
         <f t="shared" si="3"/>
         <v>145.91555371290065</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71" s="30">
+        <f t="shared" si="4"/>
+        <v>3.4810810810810811</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>30</v>
       </c>
@@ -2778,8 +2810,12 @@
         <f t="shared" si="3"/>
         <v>90.93266739736606</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="H72" s="30">
+        <f t="shared" si="4"/>
+        <v>2.2702702702702702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>35</v>
       </c>
@@ -2801,8 +2837,12 @@
         <f t="shared" si="3"/>
         <v>43.660803960603261</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="H73" s="30">
+        <f t="shared" si="4"/>
+        <v>1.1524324324324322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>40</v>
       </c>
@@ -2824,8 +2864,12 @@
         <f t="shared" si="3"/>
         <v>28.343644395402187</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="H74" s="30">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>45</v>
       </c>
@@ -2847,8 +2891,12 @@
         <f t="shared" si="3"/>
         <v>9.97020561473032</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="H75" s="30">
+        <f t="shared" si="4"/>
+        <v>0.30486486486486486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>50</v>
       </c>
@@ -2870,8 +2918,12 @@
         <f t="shared" si="3"/>
         <v>3.2139380484326967</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="H76" s="30">
+        <f t="shared" si="4"/>
+        <v>0.10810810810810811</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>55</v>
       </c>
@@ -2893,8 +2945,12 @@
         <f t="shared" si="3"/>
         <v>2.8678821817552307</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77" s="30">
+        <f t="shared" si="4"/>
+        <v>0.10810810810810811</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>60</v>
       </c>
@@ -2916,8 +2972,12 @@
         <f t="shared" si="3"/>
         <v>0.75000000000000022</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="H78" s="30">
+        <f t="shared" si="4"/>
+        <v>3.2432432432432434E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>65</v>
       </c>
@@ -2939,8 +2999,12 @@
         <f t="shared" si="3"/>
         <v>0.42261826174069944</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="H79" s="30">
+        <f t="shared" si="4"/>
+        <v>2.1621621621621623E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>70</v>
       </c>
@@ -2962,8 +3026,12 @@
         <f t="shared" si="3"/>
         <v>0.82084834398160511</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="H80" s="30">
+        <f t="shared" si="4"/>
+        <v>5.1891891891891889E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>75</v>
       </c>
@@ -2985,8 +3053,12 @@
         <f t="shared" si="3"/>
         <v>0.54351999471529355</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="H81" s="30">
+        <f t="shared" si="4"/>
+        <v>4.5405405405405407E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3008,8 +3080,12 @@
         <f t="shared" si="3"/>
         <v>0.32993153756716775</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="H82" s="30">
+        <f t="shared" si="4"/>
+        <v>4.1081081081081078E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>85</v>
       </c>
@@ -3031,8 +3107,12 @@
         <f t="shared" si="3"/>
         <v>0.1830270597700821</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="H83" s="30">
+        <f t="shared" si="4"/>
+        <v>4.5405405405405407E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>90</v>
       </c>
@@ -3053,6 +3133,10 @@
       <c r="F84" s="1">
         <f t="shared" si="3"/>
         <v>8.5760391843603401E-17</v>
+      </c>
+      <c r="H84" s="30">
+        <f t="shared" si="4"/>
+        <v>3.0270270270270266E-2</v>
       </c>
     </row>
   </sheetData>
